--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,21 +441,11 @@
           <t>program_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>AVIATION_OLD_REPUBLIC_2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sequential</t>
         </is>
       </c>
     </row>
@@ -639,10 +629,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3000000</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>8750000</v>
+        <v>8.75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -667,10 +657,10 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>11750000</v>
+        <v>11.75</v>
       </c>
       <c r="D3" t="n">
-        <v>10000000</v>
+        <v>10</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -695,10 +685,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>21750000</v>
+        <v>21.75</v>
       </c>
       <c r="D4" t="n">
-        <v>23250000</v>
+        <v>23.25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -723,10 +713,10 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>3000000</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>8750000</v>
+        <v>8.75</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -751,10 +741,10 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>11750000</v>
+        <v>11.75</v>
       </c>
       <c r="D6" t="n">
-        <v>10000000</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -779,10 +769,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>21750000</v>
+        <v>21.75</v>
       </c>
       <c r="D7" t="n">
-        <v>23250000</v>
+        <v>23.25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>product_type</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>claim_basis</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -499,6 +504,11 @@
           <t>excess_of_loss</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,6 +524,11 @@
           <t>excess_of_loss</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,6 +542,11 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
         </is>
       </c>
     </row>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -561,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,50 +592,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>reinsurer_share</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>country</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>product_type_1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>product_type_2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>product_type_3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>line_of_business</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sic_code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>include</t>
         </is>
@@ -654,12 +659,14 @@
       <c r="D2" t="n">
         <v>8.75</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -668,6 +675,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -682,12 +690,14 @@
       <c r="D3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -696,6 +706,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -710,12 +721,14 @@
       <c r="D4" t="n">
         <v>23.25</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -724,6 +737,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -738,12 +752,14 @@
       <c r="D5" t="n">
         <v>8.75</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -752,6 +768,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -766,12 +783,14 @@
       <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -780,6 +799,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -794,12 +814,14 @@
       <c r="D7" t="n">
         <v>23.25</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -808,6 +830,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,16 +438,98 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>program_name</t>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_TITLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CED_ID_PRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CED_NAME_PRE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ACTIVE_IND</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_COMMENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_CD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_NAME</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_CD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_NAME</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_NAME</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MANAGEMENT_REPORTING_LOB_CD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>AVIATION_OLD_REPUBLIC_2024</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -460,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,84 +553,230 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>product_type</t>
+          <t>TYPE_OF_PARTICIPATION_CD</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>claim_basis</t>
+          <t>TYPE_OF_INSURED_PERIOD_CD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ACTIVE_FLAG_CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EFFECTIVE_DATE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EXPIRY_DATE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BUSINESS_TITLE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LAYER_NO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_UW_YEAR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_ORDER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CLAIM_BASIS_CD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_COMMENT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>excess_of_loss</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>excess_of_loss</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>excess_of_loss</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -561,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,265 +800,530 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>BUSCL_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>session_rate</t>
+          <t>REPROG_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>CED_ID_PRE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>limit</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reinsurer_share</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>BUSCL_EXCLUDE_CD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>BUSCL_ENTITY_NAME_CED</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>product_type_1</t>
+          <t>POL_RISK_NAME_CED</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>product_type_2</t>
+          <t>BUSCL_COUNTRY_CD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>product_type_3</t>
+          <t>BUSCL_COUNTRY</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>BUSCL_REGION</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>line_of_business</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>sic_code</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>BUSCL_LIMIT_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AAD_100</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_100</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_FLOATER_100</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ATTACHMENT_POINT_100</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OLW_100</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_OCCURRENCE_100</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_AGG_100</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CESSION_PCT</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RETENTION_PCT</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>SUPI_100</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_RATE_PCT</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_DEPOSIT_100</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_MIN_100</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_COVER_PCT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_EXCESS_PCT</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>SIGNED_SHARE_PCT</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_LINE_SLAV_CED</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PML_DEFAULT_PCT</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_EVENT</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.75</v>
-      </c>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.25</v>
-      </c>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.75</v>
-      </c>
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23.25</v>
-      </c>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -1016,15 +1016,15 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>8.75</v>
+      </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>8.75</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1072,15 +1072,15 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
         <v>11.75</v>
       </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>10</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1128,15 +1128,15 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>23.25</v>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
         <v>21.75</v>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>23.25</v>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1184,15 +1184,15 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>8.75</v>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
         <v>3</v>
       </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>8.75</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1240,15 +1240,15 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
         <v>11.75</v>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>10</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -1296,15 +1296,15 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>23.25</v>
+      </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>21.75</v>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>23.25</v>
-      </c>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -1017,11 +1017,11 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>8.75</v>
+        <v>8750000</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3000000</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -1073,11 +1073,11 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>11.75</v>
+        <v>11750000</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -1129,11 +1129,11 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>23.25</v>
+        <v>23250000</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>21.75</v>
+        <v>21750000</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -1185,11 +1185,11 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>8.75</v>
+        <v>8750000</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3000000</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1241,11 +1241,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>10000000</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>11.75</v>
+        <v>11750000</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1297,11 +1297,11 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>23.25</v>
+        <v>23250000</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>21.75</v>
+        <v>21750000</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,35 +618,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>INSPER_PREDECESSOR_TITLE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CLAIM_BASIS_CD</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>INSPER_COMMENT</t>
         </is>
@@ -685,14 +690,15 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -727,14 +733,15 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -769,14 +776,15 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -684,9 +684,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -727,9 +725,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -770,9 +766,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -524,8 +524,16 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>aviation</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -434,6 +434,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="31" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="36" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,14 +532,9 @@
           <t>AVIATION_OLD_REPUBLIC_2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>aviation</t>
@@ -534,10 +545,6 @@
           <t>Aviation</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -557,6 +564,29 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="34" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -669,18 +699,14 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>1</v>
       </c>
@@ -689,39 +715,24 @@
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>1</v>
       </c>
@@ -730,39 +741,24 @@
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -771,22 +767,11 @@
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -806,6 +791,46 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="27" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="17" customWidth="1" min="30" max="30"/>
+    <col width="28" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="16" customWidth="1" min="33" max="33"/>
+    <col width="18" customWidth="1" min="34" max="34"/>
+    <col width="23" customWidth="1" min="35" max="35"/>
+    <col width="17" customWidth="1" min="36" max="36"/>
+    <col width="13" customWidth="1" min="37" max="37"/>
+    <col width="22" customWidth="1" min="38" max="38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1006,54 +1031,23 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
         <v>8750000</v>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
         <v>3000000</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
         <v>0.1</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1062,54 +1056,23 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="Q3" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>8750000</v>
+      </c>
       <c r="S3" t="n">
-        <v>11750000</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+        <v>3000000</v>
+      </c>
       <c r="AH3" t="n">
         <v>0.1</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1118,54 +1081,23 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>2</v>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>23250000</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
+        <v>10000000</v>
+      </c>
       <c r="S4" t="n">
-        <v>21750000</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+        <v>11750000</v>
+      </c>
       <c r="AH4" t="n">
-        <v>0.0979</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1174,54 +1106,23 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>2</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
+        <v>10000000</v>
+      </c>
       <c r="S5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+        <v>11750000</v>
+      </c>
       <c r="AH5" t="n">
         <v>0.1</v>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1230,54 +1131,23 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>3</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="Q6" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>23250000</v>
+      </c>
       <c r="S6" t="n">
-        <v>11750000</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+        <v>21750000</v>
+      </c>
       <c r="AH6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+        <v>0.0979</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,54 +1156,23 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
         <v>23250000</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>21750000</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
         <v>0.0979</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,8 @@
     <col width="17" customWidth="1" min="36" max="36"/>
     <col width="13" customWidth="1" min="37" max="37"/>
     <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1023,6 +1025,16 @@
           <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_HULL</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_LIABILITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1047,6 +1059,12 @@
       </c>
       <c r="AH2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1073,6 +1091,12 @@
       <c r="AH3" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1098,6 +1122,12 @@
       <c r="AH4" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1123,6 +1153,12 @@
       <c r="AH5" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1148,6 +1184,12 @@
       <c r="AH6" t="n">
         <v>0.0979</v>
       </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1172,6 +1214,12 @@
       </c>
       <c r="AH7" t="n">
         <v>0.0979</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="program" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="structures" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="conditions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/examples/programs/aviation_old_republic_2024.xlsx
+++ b/examples/programs/aviation_old_republic_2024.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,26 +812,25 @@
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="27" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="13" customWidth="1" min="36" max="36"/>
+    <col width="22" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,100 +936,95 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_OCCURRENCE_100</t>
+          <t>LIMIT_AGG_100</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_AGG_100</t>
+          <t>CESSION_PCT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>CESSION_PCT</t>
+          <t>RETENTION_PCT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RETENTION_PCT</t>
+          <t>SUPI_100</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SUPI_100</t>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+          <t>PREMIUM_RATE_PCT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_RATE_PCT</t>
+          <t>PREMIUM_DEPOSIT_100</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_DEPOSIT_100</t>
+          <t>PREMIUM_MIN_100</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_MIN_100</t>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_LIABILITY_1_LINE_100</t>
+          <t>MAX_COVER_PCT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MAX_COVER_PCT</t>
+          <t>MIN_EXCESS_PCT</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MIN_EXCESS_PCT</t>
+          <t>SIGNED_SHARE_PCT</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>SIGNED_SHARE_PCT</t>
+          <t>AVERAGE_LINE_SLAV_CED</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_LINE_SLAV_CED</t>
+          <t>PML_DEFAULT_PCT</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>PML_DEFAULT_PCT</t>
+          <t>LIMIT_EVENT</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_EVENT</t>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NO_OF_REINSTATEMENTS</t>
+          <t>INCLUDES_HULL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>INCLUDES_HULL</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>INCLUDES_LIABILITY</t>
         </is>
@@ -1057,13 +1051,13 @@
       <c r="S2" t="n">
         <v>3000000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
       <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1088,13 +1082,13 @@
       <c r="S3" t="n">
         <v>3000000</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AG3" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
       <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1119,13 +1113,13 @@
       <c r="S4" t="n">
         <v>11750000</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AG4" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
       <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1150,13 +1144,13 @@
       <c r="S5" t="n">
         <v>11750000</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AG5" t="n">
         <v>0.1</v>
       </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
       <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1181,13 +1175,13 @@
       <c r="S6" t="n">
         <v>21750000</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AG6" t="n">
         <v>0.0979</v>
       </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
       <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1212,13 +1206,13 @@
       <c r="S7" t="n">
         <v>21750000</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AG7" t="n">
         <v>0.0979</v>
       </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
       <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
         <v>1</v>
       </c>
     </row>
